--- a/TestData/T2215_ImportPositionsWithTeamMembers.xlsx
+++ b/TestData/T2215_ImportPositionsWithTeamMembers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Client</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Chris Lord</t>
+  </si>
+  <si>
+    <t>10000.0</t>
   </si>
 </sst>
 </file>
@@ -578,38 +581,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="17" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="17" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" style="2"/>
-    <col min="26" max="26" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2"/>
+    <col min="24" max="25" width="8.85546875" style="2"/>
+    <col min="26" max="26" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -775,7 +778,7 @@
         <v>64</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>36</v>
@@ -795,13 +798,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -809,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -826,23 +829,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -883,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>

--- a/TestData/T2215_ImportPositionsWithTeamMembers.xlsx
+++ b/TestData/T2215_ImportPositionsWithTeamMembers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Client</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Chris Lord</t>
-  </si>
-  <si>
-    <t>10000.0</t>
   </si>
 </sst>
 </file>
@@ -581,38 +578,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="2"/>
-    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2"/>
-    <col min="15" max="17" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="17" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" style="2"/>
-    <col min="26" max="26" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="2"/>
+    <col min="24" max="25" width="8.88671875" style="2"/>
+    <col min="26" max="26" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -778,7 +775,7 @@
         <v>64</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>36</v>
@@ -798,13 +795,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -812,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -829,23 +826,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -886,7 +883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>

--- a/TestData/T2215_ImportPositionsWithTeamMembers.xlsx
+++ b/TestData/T2215_ImportPositionsWithTeamMembers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A03B76-5E63-4AE7-BEB0-D826BE82AA03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Client</t>
   </si>
@@ -244,12 +237,15 @@
   </si>
   <si>
     <t>Chris Lord</t>
+  </si>
+  <si>
+    <t>100000.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,41 +571,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="17" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="17" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" style="2"/>
-    <col min="26" max="26" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2"/>
+    <col min="24" max="25" width="8.85546875" style="2"/>
+    <col min="26" max="26" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -775,7 +771,7 @@
         <v>64</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>36</v>
@@ -788,20 +784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -809,7 +805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -823,26 +819,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -883,7 +879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
